--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1155674B-C3E0-4781-B959-4D8414A90299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C21C8A-AED9-4423-A957-B232B1F2D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="151">
   <si>
     <t>ANTES DE GRABAR</t>
   </si>
@@ -409,13 +410,91 @@
   </si>
   <si>
     <t>No contesta teléfono</t>
+  </si>
+  <si>
+    <t>paradaenvio</t>
+  </si>
+  <si>
+    <t>envios</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Selecciono</t>
+  </si>
+  <si>
+    <t>_estado</t>
+  </si>
+  <si>
+    <t>_optionMotivo</t>
+  </si>
+  <si>
+    <t>_observaciones</t>
+  </si>
+  <si>
+    <t>- Armar modelo parada y hacer el PUT</t>
+  </si>
+  <si>
+    <t>- Ponerle enviado 1 al registro en la BD Local</t>
+  </si>
+  <si>
+    <t>Guardar en BD Local paradaenvio con las 3 opciones seleccionadas y un campo enviado =0</t>
+  </si>
+  <si>
+    <t>- Armar modelo p_seguimiento y hacer el POST</t>
+  </si>
+  <si>
+    <t>Rutas</t>
+  </si>
+  <si>
+    <t>Paradas</t>
+  </si>
+  <si>
+    <t>Envios</t>
+  </si>
+  <si>
+    <t>ParadasEnvios</t>
+  </si>
+  <si>
+    <t>paradas</t>
+  </si>
+  <si>
+    <t>Recorrer BD Local y para los registros con enviado=0 y hay Internet</t>
+  </si>
+  <si>
+    <t>IDENVIO</t>
+  </si>
+  <si>
+    <t>IDETAPA</t>
+  </si>
+  <si>
+    <t>IDUSUARIO</t>
+  </si>
+  <si>
+    <t>MOTIVO</t>
+  </si>
+  <si>
+    <t>NOTACHOFER</t>
+  </si>
+  <si>
+    <t>Informada x Ws App</t>
+  </si>
+  <si>
+    <t>FALTA INFORMACION</t>
+  </si>
+  <si>
+    <t>- Armar modelo envío y hacer el PUT (la foto va en el campo urlDNI)</t>
+  </si>
+  <si>
+    <t>La fecha pasarla a entero y sumarle 36161</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +526,17 @@
       <u/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -507,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,6 +615,19 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9E5AD-1D27-4A0E-AF14-E382028640F8}">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3235,10 +3338,10 @@
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="22" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3259,18 +3362,18 @@
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3359,6 +3462,184 @@
       </c>
       <c r="K60" s="1">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
+  <dimension ref="C3:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="13" width="11.5546875" style="18"/>
+    <col min="14" max="14" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G17" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G23" s="18">
+        <v>1950980</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1005273</v>
+      </c>
+      <c r="I23" s="24">
+        <v>10</v>
+      </c>
+      <c r="J23" s="24">
+        <v>10</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0</v>
+      </c>
+      <c r="L23" s="24">
+        <v>80740</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="K26" s="27">
+        <v>44579</v>
+      </c>
+      <c r="L26" s="26">
+        <f>L23-36161</f>
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="L28" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C21C8A-AED9-4423-A957-B232B1F2D654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32802A69-C6F5-4F53-ADC7-B1E4CB8D1E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="163">
   <si>
     <t>ANTES DE GRABAR</t>
   </si>
@@ -488,6 +488,42 @@
   </si>
   <si>
     <t>La fecha pasarla a entero y sumarle 36161</t>
+  </si>
+  <si>
+    <t>SELECT ID, Estado, Fecha, Hora, IdMotivo, NotaChofer</t>
+  </si>
+  <si>
+    <t>FROM     p_Paradas</t>
+  </si>
+  <si>
+    <t>WHERE  (IdRuta = 1569)</t>
+  </si>
+  <si>
+    <t>ORDER BY ID</t>
+  </si>
+  <si>
+    <t>SELECT ID, ESTADO, FechaEntregaCliente, FechaUltimaActualizacion, UltimoIdMotivo, UltimaNotaFletero</t>
+  </si>
+  <si>
+    <t>FROM     p_Envios</t>
+  </si>
+  <si>
+    <t>WHERE  (NroRuta = 1569)</t>
+  </si>
+  <si>
+    <t>SELECT ID, IDENVIO, IDETAPA, ESTADO, IDUSUARIO, FECHA, HORA, OBSERVACIONES, MOTIVO, NOTACHOFER</t>
+  </si>
+  <si>
+    <t>FROM     p_Seguimiento</t>
+  </si>
+  <si>
+    <t>WHERE  (IDUSUARIO = 446)</t>
+  </si>
+  <si>
+    <t>ORDER BY ID DESC</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTOS</t>
   </si>
 </sst>
 </file>
@@ -944,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9E5AD-1D27-4A0E-AF14-E382028640F8}">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:O41"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3472,10 +3508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
-  <dimension ref="C3:P28"/>
+  <dimension ref="A3:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3561,12 +3597,12 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G17" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G22" s="18" t="s">
         <v>1</v>
       </c>
@@ -3598,7 +3634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G23" s="18">
         <v>1950980</v>
       </c>
@@ -3628,7 +3664,7 @@
       </c>
       <c r="P23" s="24"/>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K26" s="27">
         <v>44579</v>
       </c>
@@ -3637,9 +3673,84 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L28" s="18" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32802A69-C6F5-4F53-ADC7-B1E4CB8D1E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F3D09-9C6E-4AB2-9B45-D0DDB525598D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="176">
   <si>
     <t>ANTES DE GRABAR</t>
   </si>
@@ -524,6 +524,45 @@
   </si>
   <si>
     <t>SEGUIMIENTOS</t>
+  </si>
+  <si>
+    <t>PARA RESETEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use ObrasOT </t>
+  </si>
+  <si>
+    <t>update p_paradas</t>
+  </si>
+  <si>
+    <t>set estado = 3 , Fecha = null, hora = '' , idmotivo= null, notachofer=''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where estado &lt;&gt; 0 and IdRuta=1569 </t>
+  </si>
+  <si>
+    <t>Update p_envios</t>
+  </si>
+  <si>
+    <t>set estado=3 , FechaEntregaCliente= null, FechaUltimaActualizacion= null, UltimoIdMotivo=0, UltimaNotaFletero=''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where NroRuta=1569 </t>
+  </si>
+  <si>
+    <t>delete p_seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where IDUSUARIO=446 </t>
+  </si>
+  <si>
+    <t>--resetea paradas</t>
+  </si>
+  <si>
+    <t>--resetea p_envios</t>
+  </si>
+  <si>
+    <t>--resetea p_SEGUIMIENTOS</t>
   </si>
 </sst>
 </file>
@@ -3508,10 +3547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
-  <dimension ref="A3:P47"/>
+  <dimension ref="A3:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3688,69 +3727,161 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I46" s="18">
+        <v>80159</v>
+      </c>
+      <c r="J46" s="26">
+        <f>+I46-36161</f>
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>161</v>
+      </c>
+      <c r="I47" s="18">
+        <v>80743</v>
+      </c>
+      <c r="J47" s="26">
+        <f>+I47-36161</f>
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="18">
+        <v>36161</v>
+      </c>
+      <c r="J48" s="26">
+        <f>+I48-36161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="18">
+        <f>+I48-36160</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F3D09-9C6E-4AB2-9B45-D0DDB525598D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000CC1CC-9A69-47D3-A6F5-730E9E86949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
@@ -502,9 +502,6 @@
     <t>ORDER BY ID</t>
   </si>
   <si>
-    <t>SELECT ID, ESTADO, FechaEntregaCliente, FechaUltimaActualizacion, UltimoIdMotivo, UltimaNotaFletero</t>
-  </si>
-  <si>
     <t>FROM     p_Envios</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>Update p_envios</t>
   </si>
   <si>
-    <t>set estado=3 , FechaEntregaCliente= null, FechaUltimaActualizacion= null, UltimoIdMotivo=0, UltimaNotaFletero=''</t>
-  </si>
-  <si>
     <t xml:space="preserve">where NroRuta=1569 </t>
   </si>
   <si>
@@ -563,13 +557,19 @@
   </si>
   <si>
     <t>--resetea p_SEGUIMIENTOS</t>
+  </si>
+  <si>
+    <t>SELECT ID, ESTADO, FechaEntregaCliente, FechaUltimaActualizacion, UltimoIdMotivo, UltimaNotaFletero, UrlDNI</t>
+  </si>
+  <si>
+    <t>set estado=3 , FechaEntregaCliente= null, FechaUltimaActualizacion= null, UltimoIdMotivo=0, UltimaNotaFletero='', UrlDNI=''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +611,12 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -672,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,6 +709,7 @@
     <xf numFmtId="20" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3547,11 +3554,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
-  <dimension ref="A3:P63"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A47"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3561,7 +3566,10 @@
     <col min="16" max="16384" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="18" t="s">
         <v>136</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="18" t="s">
         <v>137</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="18" t="s">
         <v>138</v>
       </c>
@@ -3594,7 +3602,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E6" s="17" t="s">
         <v>126</v>
       </c>
@@ -3602,33 +3610,33 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F10" s="19" t="s">
         <v>134</v>
       </c>
       <c r="H10" s="17"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G14" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G16" s="23" t="s">
         <v>135</v>
       </c>
@@ -3748,43 +3756,43 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I46" s="18">
         <v>80159</v>
@@ -3796,7 +3804,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I47" s="18">
         <v>80743</v>
@@ -3817,7 +3825,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I49" s="18">
         <f>+I48-36160</f>
@@ -3826,62 +3834,62 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000CC1CC-9A69-47D3-A6F5-730E9E86949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B485C-1F71-483C-842B-FEEB39C29D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
@@ -559,10 +559,10 @@
     <t>--resetea p_SEGUIMIENTOS</t>
   </si>
   <si>
-    <t>SELECT ID, ESTADO, FechaEntregaCliente, FechaUltimaActualizacion, UltimoIdMotivo, UltimaNotaFletero, UrlDNI</t>
-  </si>
-  <si>
     <t>set estado=3 , FechaEntregaCliente= null, FechaUltimaActualizacion= null, UltimoIdMotivo=0, UltimaNotaFletero='', UrlDNI=''</t>
+  </si>
+  <si>
+    <t>SELECT ID, ESTADO, FechaEntregaCliente, FechaUltimaActualizacion, UltimoIdMotivo, UltimaNotaFletero, UrlDNI,LATITUD2,LONGITUD2</t>
   </si>
 </sst>
 </file>
@@ -3556,7 +3556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3757,7 +3759,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -3869,7 +3871,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">

--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B485C-1F71-483C-842B-FEEB39C29D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F903DE9-826C-4468-97C0-C5C98CB88C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="180">
   <si>
     <t>ANTES DE GRABAR</t>
   </si>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>SELECT ID, ESTADO, FechaEntregaCliente, FechaUltimaActualizacion, UltimoIdMotivo, UltimaNotaFletero, UrlDNI,LATITUD2,LONGITUD2</t>
+  </si>
+  <si>
+    <t>SELECT IdEnvio,ID, Estado, Fecha, Hora, IdMotivo, NotaChofer, Secuencia</t>
+  </si>
+  <si>
+    <t>WHERE  (IdRuta = 2425)</t>
+  </si>
+  <si>
+    <t>ORDER BY IdEnvio</t>
+  </si>
+  <si>
+    <t>WHERE  (NroRuta = 2425)</t>
   </si>
 </sst>
 </file>
@@ -678,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,6 +722,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9E5AD-1D27-4A0E-AF14-E382028640F8}">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3554,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3894,6 +3907,52 @@
         <v>170</v>
       </c>
     </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="29"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="29"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
+++ b/LO QUE CAMBIA EN ENVIOS Y PARADAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F903DE9-826C-4468-97C0-C5C98CB88C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BA2BD-718E-4F32-AFDC-FF279FEA1F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9CDC810F-665F-4E82-997D-B77DDCCC3EAE}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,7 +720,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -3569,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CE9C5-308F-4DC4-BC67-C26EED04CDA8}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A78"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3582,7 +3581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
+      <c r="A1" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="18" t="s">
@@ -3727,7 +3726,7 @@
       <c r="P23" s="24"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K26" s="27">
+      <c r="K26" s="18">
         <v>44579</v>
       </c>
       <c r="L26" s="26">
@@ -3771,22 +3770,22 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="18" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="18" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3908,48 +3907,48 @@
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
+      <c r="A73" s="28"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
+      <c r="A74" s="28"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="28" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="28" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>154</v>
       </c>
     </row>
